--- a/forms/contact/county_officer-create.xlsx
+++ b/forms/contact/county_officer-create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Community Testing Forms\config-covid-community-testing-master_Aug 24 2022\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -987,10 +987,10 @@
   <dimension ref="A1:M910"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34128,7 +34128,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">NOW()</f>
-        <v>44803.725136921297</v>
+        <v>44834.707860879629</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>32</v>
